--- a/MIC_efficacy.xlsx
+++ b/MIC_efficacy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Scripts_practice/R_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B9AE925-90BD-6D48-8A53-076EE7C2A76D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CD9EAAA-BCAF-7049-B06F-6432F123DBFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="-17940" windowWidth="24540" windowHeight="14020" xr2:uid="{B5FB8846-1661-6D41-AAF9-DC8BF9DAD2BA}"/>
+    <workbookView xWindow="-2580" yWindow="-19460" windowWidth="24540" windowHeight="14020" xr2:uid="{B5FB8846-1661-6D41-AAF9-DC8BF9DAD2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,35 +409,28 @@
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="4">
-        <v>0.12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2">
-        <f>B1/2</f>
-        <v>0.06</v>
+        <v>2.5</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:I1" si="0">C1/2</f>
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.625</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0.3125</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999999E-3</v>
+        <v>0.15625</v>
       </c>
       <c r="H1" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8749999999999999E-3</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="I1" s="1">
-        <f t="shared" si="0"/>
-        <v>9.3749999999999997E-4</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="J1" s="3">
         <v>0</v>
@@ -445,265 +438,258 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>0.97439446366782012</v>
+        <v>0.99966358913019104</v>
       </c>
       <c r="C2" s="1">
-        <v>0.98638985005767033</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="D2" s="1">
-        <v>0.99561707035755498</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="E2" s="1">
-        <v>0.99607843137254914</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="F2" s="1">
-        <v>0.99653979238754331</v>
+        <v>0.99637423840316974</v>
       </c>
       <c r="G2" s="1">
-        <v>0.99008073817762421</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="H2" s="1">
-        <v>0.98823529411764721</v>
+        <v>0.54094867865286134</v>
       </c>
       <c r="I2" s="1">
-        <v>0.98085351787773944</v>
+        <v>0.55201285837102376</v>
       </c>
       <c r="J2" s="1">
-        <v>0.99008073817762421</v>
+        <v>0.62168728740701973</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <f>A2/2</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>0.99884659746251447</v>
+        <v>1.0002616528987402</v>
       </c>
       <c r="C3" s="1">
-        <v>0.99930795847750886</v>
+        <v>1.0005606847830151</v>
       </c>
       <c r="D3" s="1">
-        <v>0.99838523644752031</v>
+        <v>1.0002616528987402</v>
       </c>
       <c r="E3" s="1">
-        <v>0.99930795847750886</v>
+        <v>1.0005606847830151</v>
       </c>
       <c r="F3" s="1">
-        <v>0.99700115340253748</v>
+        <v>0.9984674615930923</v>
       </c>
       <c r="G3" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.43120397712406083</v>
       </c>
       <c r="H3" s="1">
-        <v>0.99607843137254914</v>
+        <v>0.36870631331065679</v>
       </c>
       <c r="I3" s="1">
-        <v>0.99884659746251447</v>
+        <v>0.37558404664897388</v>
       </c>
       <c r="J3" s="1">
-        <v>0.99976931949250303</v>
+        <v>0.61929503233282235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A9" si="1">A3/2</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>0.99884659746251447</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="C4" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="D4" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.99966358913019104</v>
       </c>
       <c r="E4" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.94374462677082938</v>
       </c>
       <c r="F4" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.4383807423466527</v>
       </c>
       <c r="G4" s="1">
-        <v>0.99838523644752031</v>
+        <v>0.40877658580346127</v>
       </c>
       <c r="H4" s="1">
-        <v>0.9919261822376011</v>
+        <v>0.34657795387433177</v>
       </c>
       <c r="I4" s="1">
-        <v>0.99054209919261837</v>
+        <v>0.35794116547676896</v>
       </c>
       <c r="J4" s="1">
-        <v>0.99884659746251447</v>
+        <v>0.56995477142750339</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B5" s="1">
-        <v>0.99838523644752031</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="C5" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.99876649347736701</v>
       </c>
       <c r="D5" s="1">
-        <v>0.99884659746251447</v>
+        <v>0.995178110866071</v>
       </c>
       <c r="E5" s="1">
-        <v>0.99746251441753186</v>
+        <v>0.60972601203603327</v>
       </c>
       <c r="F5" s="1">
-        <v>0.99146482122260671</v>
+        <v>0.4267184988599409</v>
       </c>
       <c r="G5" s="1">
-        <v>0.9291810841983853</v>
+        <v>0.39741337420102413</v>
       </c>
       <c r="H5" s="1">
-        <v>0.85859284890426768</v>
+        <v>0.31727282921541505</v>
       </c>
       <c r="I5" s="1">
-        <v>0.865051903114187</v>
+        <v>0.35824019736104362</v>
       </c>
       <c r="J5" s="1">
-        <v>0.97485582468281429</v>
+        <v>0.60553956565618805</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0002306805074972</v>
+        <v>0.99876649347736701</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0006920415224914</v>
+        <v>1.0005606847830151</v>
       </c>
       <c r="D6" s="1">
-        <v>0.99792387543252603</v>
+        <v>0.93836205285388552</v>
       </c>
       <c r="E6" s="1">
-        <v>0.79307958477508667</v>
+        <v>0.54363996561133321</v>
       </c>
       <c r="F6" s="1">
-        <v>0.71603229527104961</v>
+        <v>0.43419429596680742</v>
       </c>
       <c r="G6" s="1">
-        <v>0.70588235294117663</v>
+        <v>0.34269053937876121</v>
       </c>
       <c r="H6" s="1">
-        <v>0.70865051903114185</v>
+        <v>0.27331514222703984</v>
       </c>
       <c r="I6" s="1">
-        <v>0.6555940023068052</v>
+        <v>0.33252345531342281</v>
       </c>
       <c r="J6" s="1">
-        <v>0.60761245674740494</v>
+        <v>0.61211826711023054</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1.125</v>
       </c>
       <c r="B7" s="1">
-        <v>0.99838523644752031</v>
+        <v>0.99996262101446565</v>
       </c>
       <c r="C7" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.99966358913019104</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9005767012687429</v>
+        <v>0.7048181512353755</v>
       </c>
       <c r="E7" s="1">
-        <v>0.67404844290657451</v>
+        <v>0.47755391918663326</v>
       </c>
       <c r="F7" s="1">
-        <v>0.53979238754325265</v>
+        <v>0.37857436549172058</v>
       </c>
       <c r="G7" s="1">
-        <v>0.5762399077277971</v>
+        <v>0.3558479422868463</v>
       </c>
       <c r="H7" s="1">
-        <v>0.56332179930795856</v>
+        <v>0.31936605240533772</v>
       </c>
       <c r="I7" s="1">
-        <v>0.52087658592848918</v>
+        <v>0.30291929877023133</v>
       </c>
       <c r="J7" s="1">
-        <v>0.44336793540945796</v>
+        <v>0.5532089859081224</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="B8" s="1">
-        <v>0.99930795847750886</v>
+        <v>0.99906552536164162</v>
       </c>
       <c r="C8" s="1">
-        <v>0.97854671280276817</v>
+        <v>0.99158972825477509</v>
       </c>
       <c r="D8" s="1">
-        <v>0.76770472895040376</v>
+        <v>0.50566291630845128</v>
       </c>
       <c r="E8" s="1">
-        <v>0.58546712802768175</v>
+        <v>0.45662168728740699</v>
       </c>
       <c r="F8" s="1">
-        <v>0.50196078431372548</v>
+        <v>0.24849549583224309</v>
       </c>
       <c r="G8" s="1">
-        <v>0.54532871972318342</v>
+        <v>0.26673644077299741</v>
       </c>
       <c r="H8" s="1">
-        <v>0.54117647058823537</v>
+        <v>0.27062385526856797</v>
       </c>
       <c r="I8" s="1">
-        <v>0.55317185697808546</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="J8" s="1">
-        <v>0.36862745098039224</v>
+        <v>0.53765932792584004</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.3125</v>
+        <v>0.28125</v>
       </c>
       <c r="B9" s="1">
-        <v>0.99976931949250303</v>
+        <v>1.0023548760886629</v>
       </c>
       <c r="C9" s="1">
-        <v>0.91211072664359871</v>
+        <v>1.0035510036257616</v>
       </c>
       <c r="D9" s="1">
-        <v>0.67174163783160334</v>
+        <v>1.0038500355100362</v>
       </c>
       <c r="E9" s="1">
-        <v>0.44475201845444068</v>
+        <v>1.0035510036257616</v>
       </c>
       <c r="F9" s="1">
-        <v>0.43414071510957336</v>
+        <v>0.24072066684110185</v>
       </c>
       <c r="G9" s="1">
-        <v>0.51995386389850073</v>
+        <v>0.28766867267222362</v>
       </c>
       <c r="H9" s="1">
-        <v>0.45121107266435995</v>
+        <v>0.29663962920046349</v>
       </c>
       <c r="I9" s="1">
-        <v>0.39215686274509809</v>
+        <v>0.33641086980899337</v>
       </c>
       <c r="J9" s="1">
-        <v>0.19423298731257221</v>
+        <v>0.53765932792584004</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -711,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0002306805074972</v>
+        <v>1.0005606847830151</v>
       </c>
       <c r="C10" s="1">
-        <v>0.87151095732410622</v>
+        <v>0.98381489926363397</v>
       </c>
       <c r="D10" s="1">
-        <v>0.65420991926182248</v>
+        <v>0.55769446417224233</v>
       </c>
       <c r="E10" s="1">
-        <v>0.55778546712802768</v>
+        <v>0.44017493365230065</v>
       </c>
       <c r="F10" s="1">
-        <v>0.44890426758938873</v>
+        <v>0.30979703210854859</v>
       </c>
       <c r="G10" s="1">
-        <v>0.39492502883506347</v>
+        <v>0.36571599446791009</v>
       </c>
       <c r="H10" s="1">
-        <v>0.29204152249134957</v>
+        <v>0.30979703210854859</v>
       </c>
       <c r="I10" s="1">
-        <v>0.29204152249134957</v>
+        <v>0.30979703210854859</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>

--- a/MIC_efficacy.xlsx
+++ b/MIC_efficacy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Scripts_practice/R_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CD9EAAA-BCAF-7049-B06F-6432F123DBFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7994D65-47B7-8349-B88A-DEC7293F1729}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2580" yWindow="-19460" windowWidth="24540" windowHeight="14020" xr2:uid="{B5FB8846-1661-6D41-AAF9-DC8BF9DAD2BA}"/>
+    <workbookView xWindow="-4000" yWindow="-19460" windowWidth="24540" windowHeight="14020" xr2:uid="{B5FB8846-1661-6D41-AAF9-DC8BF9DAD2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,24 +42,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,14 +65,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,324 +387,324 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="4">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2.5</v>
+      <c r="B1" s="1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E1" s="1">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="F1" s="1">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="G1" s="1">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="H1" s="1">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="I1" s="1">
-        <v>3.90625E-2</v>
-      </c>
-      <c r="J1" s="3">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="J1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>0.99966358913019104</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="C2" s="1">
-        <v>0.99996262101446565</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="D2" s="1">
-        <v>0.99996262101446565</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="E2" s="1">
-        <v>0.99996262101446565</v>
+        <v>0.99840255591054317</v>
       </c>
       <c r="F2" s="1">
-        <v>0.99637423840316974</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0.99996262101446565</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="H2" s="1">
-        <v>0.54094867865286134</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.55201285837102376</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="J2" s="1">
-        <v>0.62168728740701973</v>
+        <v>0.99760383386581464</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0002616528987402</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0005606847830151</v>
+        <v>1.0023961661341851</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0002616528987402</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0005606847830151</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="F3" s="1">
-        <v>0.9984674615930923</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="G3" s="1">
-        <v>0.43120397712406083</v>
+        <v>1.0015974440894568</v>
       </c>
       <c r="H3" s="1">
-        <v>0.36870631331065679</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>0.37558404664897388</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="J3" s="1">
-        <v>0.61929503233282235</v>
+        <v>0.97364217252396157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.99996262101446565</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0.99996262101446565</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="D4" s="1">
-        <v>0.99966358913019104</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.94374462677082938</v>
+        <v>0.99520766773162939</v>
       </c>
       <c r="F4" s="1">
-        <v>0.4383807423466527</v>
+        <v>1.0015974440894568</v>
       </c>
       <c r="G4" s="1">
-        <v>0.40877658580346127</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="H4" s="1">
-        <v>0.34657795387433177</v>
+        <v>0.99</v>
       </c>
       <c r="I4" s="1">
-        <v>0.35794116547676896</v>
+        <v>0.99520766773162939</v>
       </c>
       <c r="J4" s="1">
-        <v>0.56995477142750339</v>
+        <v>0.59424920127795522</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="B5" s="1">
-        <v>0.99996262101446565</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="C5" s="1">
-        <v>0.99876649347736701</v>
+        <v>1.0015974440894568</v>
       </c>
       <c r="D5" s="1">
-        <v>0.995178110866071</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.60972601203603327</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.4267184988599409</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="G5" s="1">
-        <v>0.39741337420102413</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="H5" s="1">
-        <v>0.31727282921541505</v>
+        <v>0.50239616613418525</v>
       </c>
       <c r="I5" s="1">
-        <v>0.35824019736104362</v>
+        <v>0.43370607028753988</v>
       </c>
       <c r="J5" s="1">
-        <v>0.60553956565618805</v>
+        <v>-6.9488817891373775E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.99876649347736701</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0005606847830151</v>
+        <v>1.0015974440894568</v>
       </c>
       <c r="D6" s="1">
-        <v>0.93836205285388552</v>
+        <v>0.99201277955271561</v>
       </c>
       <c r="E6" s="1">
-        <v>0.54363996561133321</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="F6" s="1">
-        <v>0.43419429596680742</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="G6" s="1">
-        <v>0.34269053937876121</v>
+        <v>0.81549520766773154</v>
       </c>
       <c r="H6" s="1">
-        <v>0.27331514222703984</v>
+        <v>0.58706070287539924</v>
       </c>
       <c r="I6" s="1">
-        <v>0.33252345531342281</v>
+        <v>0.24440894568690091</v>
       </c>
       <c r="J6" s="1">
-        <v>0.61211826711023054</v>
+        <v>-0.36980830670926523</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>1.125</v>
+        <v>0.625</v>
       </c>
       <c r="B7" s="1">
-        <v>0.99996262101446565</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="C7" s="1">
-        <v>0.99966358913019104</v>
+        <v>1.0023961661341851</v>
       </c>
       <c r="D7" s="1">
-        <v>0.7048181512353755</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="E7" s="1">
-        <v>0.47755391918663326</v>
+        <v>0.58706070287539924</v>
       </c>
       <c r="F7" s="1">
-        <v>0.37857436549172058</v>
+        <v>6.4696485623003161E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>0.3558479422868463</v>
+        <v>1.2779552715654964E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>0.31936605240533772</v>
+        <v>-0.22444089456869021</v>
       </c>
       <c r="I7" s="1">
-        <v>0.30291929877023133</v>
+        <v>-0.32268370607028762</v>
       </c>
       <c r="J7" s="1">
-        <v>0.5532089859081224</v>
+        <v>-0.52316293929712465</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>0.5625</v>
+        <v>0.3125</v>
       </c>
       <c r="B8" s="1">
-        <v>0.99906552536164162</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0.99158972825477509</v>
+        <v>1.0015974440894568</v>
       </c>
       <c r="D8" s="1">
-        <v>0.50566291630845128</v>
+        <v>0.99920127795527147</v>
       </c>
       <c r="E8" s="1">
-        <v>0.45662168728740699</v>
+        <v>-8.3865814696485602E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.24849549583224309</v>
+        <v>1.4376996805111834E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>0.26673644077299741</v>
+        <v>-0.13258785942492024</v>
       </c>
       <c r="H8" s="1">
-        <v>0.27062385526856797</v>
+        <v>-0.60383386581469645</v>
       </c>
       <c r="I8" s="1">
-        <v>0.25806451612903225</v>
+        <v>-0.58067092651757191</v>
       </c>
       <c r="J8" s="1">
-        <v>0.53765932792584004</v>
+        <v>-0.74361022364217277</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>0.28125</v>
+        <v>0.15625</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0023548760886629</v>
+        <v>1.0015974440894568</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0035510036257616</v>
+        <v>1.0023961661341851</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0038500355100362</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0035510036257616</v>
+        <v>2.1565495207667661E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.24072066684110185</v>
+        <v>-0.44089456869009586</v>
       </c>
       <c r="G9" s="1">
-        <v>0.28766867267222362</v>
+        <v>-0.36022364217252401</v>
       </c>
       <c r="H9" s="1">
-        <v>0.29663962920046349</v>
+        <v>-0.49920127795527158</v>
       </c>
       <c r="I9" s="1">
-        <v>0.33641086980899337</v>
+        <v>-0.47763578274760388</v>
       </c>
       <c r="J9" s="1">
-        <v>0.53765932792584004</v>
+        <v>-0.66134185303514381</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0005606847830151</v>
+        <v>1.0007987220447283</v>
       </c>
       <c r="C10" s="1">
-        <v>0.98381489926363397</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0.55769446417224233</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.44017493365230065</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0.30979703210854859</v>
+        <v>0.96565495207667718</v>
       </c>
       <c r="G10" s="1">
-        <v>0.36571599446791009</v>
+        <v>7.1884984025558278E-3</v>
       </c>
       <c r="H10" s="1">
-        <v>0.30979703210854859</v>
+        <v>-0.30670926517571895</v>
       </c>
       <c r="I10" s="1">
-        <v>0.30979703210854859</v>
+        <v>-0.34025559105431324</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
